--- a/biology/Botanique/Cantharellus_pallens/Cantharellus_pallens.xlsx
+++ b/biology/Botanique/Cantharellus_pallens/Cantharellus_pallens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Girolle pruineuse, Girolle ferrugineuse
-Cantharellus pallens, la Girolle pruineuse ou Girolle ferrugineuse, est une espèce de champignons basidiomycètes de la famille des Hydnaceae[1] ou des Cantharellaceae[2].
+Cantharellus pallens, la Girolle pruineuse ou Girolle ferrugineuse, est une espèce de champignons basidiomycètes de la famille des Hydnaceae ou des Cantharellaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cantharellus pallens est souvent confondue avec Cantharellus cibarius, la Girolle commune et est tout aussi commune. Toutefois elle s'en distingue par une couleur légèrement plus pâle, une pruine blanche qui recouvre le chapeau, ainsi qu'une apparition plus tôt dans la saison (dès juin)[3][source insuffisante]. Ce champignon est un excellent comestible quoiqu'un peu moins réputé que Cantharellus cibarius[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cantharellus pallens est souvent confondue avec Cantharellus cibarius, la Girolle commune et est tout aussi commune. Toutefois elle s'en distingue par une couleur légèrement plus pâle, une pruine blanche qui recouvre le chapeau, ainsi qu'une apparition plus tôt dans la saison (dès juin)[source insuffisante]. Ce champignon est un excellent comestible quoiqu'un peu moins réputé que Cantharellus cibarius.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cantharellus pallens Pilát, 1959[1].
-Ce taxon porte en français les noms vulgaires de « Girolle pruineuse [2],[3] » et « Girolle ferrugineuse[4] ».
-Cantharellus pallens a pour synonymes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cantharellus pallens Pilát, 1959.
+Ce taxon porte en français les noms vulgaires de « Girolle pruineuse , » et « Girolle ferrugineuse ».
+Cantharellus pallens a pour synonymes :
 Cantharellus cibarius var. albus Maire
 Cantharellus cibarius var. bicolor Maire
 Cantharellus cibarius var. pallens
